--- a/config_debug/fish3d_gun_barrel_config_byam.xlsx
+++ b/config_debug/fish3d_gun_barrel_config_byam.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="27060" windowHeight="11280" tabRatio="597" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27060" windowHeight="11280" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="main|主表" sheetId="6" r:id="rId1"/>
@@ -13,7 +18,7 @@
     <sheet name="skill|技能" sheetId="8" r:id="rId4"/>
     <sheet name="lock|解锁" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -24,7 +29,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1">
+    <comment ref="G1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +95,7 @@
     <author>yang yang</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -515,14 +520,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,150 +543,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -703,8 +558,15 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -719,198 +581,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -944,255 +620,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1204,7 +638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1216,7 +650,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1268,63 +702,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1582,19 +972,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.375" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
@@ -1606,7 +996,7 @@
     <col min="8" max="8" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:8">
+    <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1632,7 +1022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="13" customFormat="1" spans="1:10">
+    <row r="2" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -1651,13 +1041,11 @@
       <c r="F2" s="15">
         <v>1</v>
       </c>
-      <c r="G2" s="15">
-        <v>5</v>
-      </c>
+      <c r="G2" s="15"/>
       <c r="H2" s="18"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -1684,7 +1072,7 @@
       </c>
       <c r="J3" s="21"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -1711,7 +1099,7 @@
       </c>
       <c r="J4" s="21"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -1738,7 +1126,7 @@
       </c>
       <c r="J5" s="21"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>5</v>
       </c>
@@ -1765,7 +1153,7 @@
       </c>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -1792,7 +1180,7 @@
       </c>
       <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <v>7</v>
       </c>
@@ -1819,7 +1207,7 @@
       </c>
       <c r="J8" s="21"/>
     </row>
-    <row r="9" s="13" customFormat="1" spans="1:10">
+    <row r="9" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -1844,7 +1232,7 @@
       <c r="H9" s="18"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" s="13" customFormat="1" spans="1:10">
+    <row r="10" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -1869,7 +1257,7 @@
       <c r="H10" s="18"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" s="13" customFormat="1" spans="1:10">
+    <row r="11" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -1894,7 +1282,7 @@
       <c r="H11" s="18"/>
       <c r="J11" s="18"/>
     </row>
-    <row r="12" s="13" customFormat="1" spans="1:7">
+    <row r="12" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -1917,7 +1305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:8">
+    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1944,25 +1332,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
@@ -1978,7 +1364,7 @@
     <col min="21" max="22" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60.75" customHeight="1" spans="1:10">
+    <row r="1" spans="1:15" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
@@ -2010,7 +1396,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2042,7 +1428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2079,7 +1465,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2116,7 +1502,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2148,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2180,7 +1566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2212,7 +1598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2244,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" s="13" customFormat="1" spans="1:10">
+    <row r="9" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -2276,7 +1662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" s="13" customFormat="1" spans="1:10">
+    <row r="10" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -2308,7 +1694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" s="13" customFormat="1" spans="1:10">
+    <row r="11" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -2340,7 +1726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" s="13" customFormat="1" spans="1:10">
+    <row r="12" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -2372,7 +1758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" s="13" customFormat="1" spans="1:10">
+    <row r="13" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -2405,22 +1791,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -2435,7 +1820,7 @@
     <col min="13" max="14" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60.75" customHeight="1" spans="1:5">
+    <row r="1" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
@@ -2452,7 +1837,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2467,11 +1852,11 @@
         <v>900</v>
       </c>
       <c r="E2" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2486,11 +1871,11 @@
         <v>1800</v>
       </c>
       <c r="E3" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2505,11 +1890,11 @@
         <v>2700</v>
       </c>
       <c r="E4" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2524,12 +1909,12 @@
         <v>3600</v>
       </c>
       <c r="E5" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2544,12 +1929,12 @@
         <v>4500</v>
       </c>
       <c r="E6" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2564,12 +1949,12 @@
         <v>5400</v>
       </c>
       <c r="E7" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2584,12 +1969,12 @@
         <v>6300</v>
       </c>
       <c r="E8" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2604,12 +1989,12 @@
         <v>7200</v>
       </c>
       <c r="E9" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2624,12 +2009,12 @@
         <v>8100</v>
       </c>
       <c r="E10" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2644,12 +2029,12 @@
         <v>9000</v>
       </c>
       <c r="E11" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2664,12 +2049,12 @@
         <v>9000</v>
       </c>
       <c r="E12" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2684,12 +2069,12 @@
         <v>18000</v>
       </c>
       <c r="E13" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2704,12 +2089,12 @@
         <v>27000</v>
       </c>
       <c r="E14" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2724,12 +2109,12 @@
         <v>36000</v>
       </c>
       <c r="E15" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2744,12 +2129,12 @@
         <v>45000</v>
       </c>
       <c r="E16" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2764,12 +2149,12 @@
         <v>54000</v>
       </c>
       <c r="E17" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2784,12 +2169,12 @@
         <v>63000</v>
       </c>
       <c r="E18" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2804,12 +2189,12 @@
         <v>72000</v>
       </c>
       <c r="E19" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2824,12 +2209,12 @@
         <v>81000</v>
       </c>
       <c r="E20" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2844,12 +2229,12 @@
         <v>90000</v>
       </c>
       <c r="E21" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2864,12 +2249,12 @@
         <v>90000</v>
       </c>
       <c r="E22" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2884,12 +2269,12 @@
         <v>180000</v>
       </c>
       <c r="E23" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2904,12 +2289,12 @@
         <v>270000</v>
       </c>
       <c r="E24" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2924,12 +2309,12 @@
         <v>360000</v>
       </c>
       <c r="E25" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2944,12 +2329,12 @@
         <v>450000</v>
       </c>
       <c r="E26" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2964,12 +2349,12 @@
         <v>540000</v>
       </c>
       <c r="E27" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2984,12 +2369,12 @@
         <v>630000</v>
       </c>
       <c r="E28" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -3004,12 +2389,12 @@
         <v>720000</v>
       </c>
       <c r="E29" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3024,12 +2409,12 @@
         <v>810000</v>
       </c>
       <c r="E30" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3044,12 +2429,12 @@
         <v>900000</v>
       </c>
       <c r="E31" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -3064,12 +2449,12 @@
         <v>900000</v>
       </c>
       <c r="E32" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -3084,12 +2469,12 @@
         <v>1800000</v>
       </c>
       <c r="E33" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -3104,12 +2489,12 @@
         <v>2700000</v>
       </c>
       <c r="E34" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -3124,12 +2509,12 @@
         <v>3600000</v>
       </c>
       <c r="E35" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -3144,12 +2529,12 @@
         <v>4500000</v>
       </c>
       <c r="E36" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3164,11 +2549,11 @@
         <v>5400000</v>
       </c>
       <c r="E37" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3183,11 +2568,11 @@
         <v>6300000</v>
       </c>
       <c r="E38" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3202,11 +2587,11 @@
         <v>7200000</v>
       </c>
       <c r="E39" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3221,11 +2606,11 @@
         <v>8100000</v>
       </c>
       <c r="E40" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3240,11 +2625,11 @@
         <v>9000000</v>
       </c>
       <c r="E41" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3259,11 +2644,11 @@
         <v>9000000</v>
       </c>
       <c r="E42" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -3278,11 +2663,11 @@
         <v>18000000</v>
       </c>
       <c r="E43" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -3297,11 +2682,11 @@
         <v>27000000</v>
       </c>
       <c r="E44" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -3316,11 +2701,11 @@
         <v>36000000</v>
       </c>
       <c r="E45" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -3335,11 +2720,11 @@
         <v>45000000</v>
       </c>
       <c r="E46" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -3354,11 +2739,11 @@
         <v>54000000</v>
       </c>
       <c r="E47" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -3373,11 +2758,11 @@
         <v>63000000</v>
       </c>
       <c r="E48" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -3392,11 +2777,11 @@
         <v>72000000</v>
       </c>
       <c r="E49" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -3411,11 +2796,11 @@
         <v>81000000</v>
       </c>
       <c r="E50" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -3430,11 +2815,11 @@
         <v>90000000</v>
       </c>
       <c r="E51" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -3449,10 +2834,10 @@
         <v>3000</v>
       </c>
       <c r="E52" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -3467,10 +2852,10 @@
         <v>6000</v>
       </c>
       <c r="E53" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -3485,10 +2870,10 @@
         <v>9000</v>
       </c>
       <c r="E54" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -3503,10 +2888,10 @@
         <v>12000</v>
       </c>
       <c r="E55" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -3521,10 +2906,10 @@
         <v>15000</v>
       </c>
       <c r="E56" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -3539,10 +2924,10 @@
         <v>18000</v>
       </c>
       <c r="E57" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -3557,10 +2942,10 @@
         <v>21000</v>
       </c>
       <c r="E58" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -3575,10 +2960,10 @@
         <v>24000</v>
       </c>
       <c r="E59" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -3593,10 +2978,10 @@
         <v>27000</v>
       </c>
       <c r="E60" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -3611,10 +2996,10 @@
         <v>30000</v>
       </c>
       <c r="E61" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -3629,10 +3014,10 @@
         <v>30000</v>
       </c>
       <c r="E62" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -3647,10 +3032,10 @@
         <v>60000</v>
       </c>
       <c r="E63" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -3665,10 +3050,10 @@
         <v>90000</v>
       </c>
       <c r="E64" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -3683,10 +3068,10 @@
         <v>120000</v>
       </c>
       <c r="E65" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -3701,10 +3086,10 @@
         <v>150000</v>
       </c>
       <c r="E66" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -3719,10 +3104,10 @@
         <v>180000</v>
       </c>
       <c r="E67" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -3737,10 +3122,10 @@
         <v>210000</v>
       </c>
       <c r="E68" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -3755,10 +3140,10 @@
         <v>240000</v>
       </c>
       <c r="E69" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -3773,10 +3158,10 @@
         <v>270000</v>
       </c>
       <c r="E70" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -3791,10 +3176,10 @@
         <v>300000</v>
       </c>
       <c r="E71" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -3809,10 +3194,10 @@
         <v>300000</v>
       </c>
       <c r="E72" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -3827,10 +3212,10 @@
         <v>600000</v>
       </c>
       <c r="E73" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -3845,10 +3230,10 @@
         <v>900000</v>
       </c>
       <c r="E74" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -3863,10 +3248,10 @@
         <v>1200000</v>
       </c>
       <c r="E75" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -3881,10 +3266,10 @@
         <v>1500000</v>
       </c>
       <c r="E76" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -3899,10 +3284,10 @@
         <v>1800000</v>
       </c>
       <c r="E77" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -3917,10 +3302,10 @@
         <v>2100000</v>
       </c>
       <c r="E78" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -3935,10 +3320,10 @@
         <v>2400000</v>
       </c>
       <c r="E79" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -3953,10 +3338,10 @@
         <v>2700000</v>
       </c>
       <c r="E80" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -3971,10 +3356,10 @@
         <v>3000000</v>
       </c>
       <c r="E81" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -3989,10 +3374,10 @@
         <v>3000000</v>
       </c>
       <c r="E82" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -4007,10 +3392,10 @@
         <v>6000000</v>
       </c>
       <c r="E83" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -4025,10 +3410,10 @@
         <v>9000000</v>
       </c>
       <c r="E84" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -4043,10 +3428,10 @@
         <v>12000000</v>
       </c>
       <c r="E85" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -4061,10 +3446,10 @@
         <v>15000000</v>
       </c>
       <c r="E86" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -4079,10 +3464,10 @@
         <v>18000000</v>
       </c>
       <c r="E87" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -4097,10 +3482,10 @@
         <v>21000000</v>
       </c>
       <c r="E88" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -4115,10 +3500,10 @@
         <v>24000000</v>
       </c>
       <c r="E89" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -4133,10 +3518,10 @@
         <v>27000000</v>
       </c>
       <c r="E90" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -4151,10 +3536,10 @@
         <v>30000000</v>
       </c>
       <c r="E91" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -4169,10 +3554,10 @@
         <v>30000000</v>
       </c>
       <c r="E92" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -4187,10 +3572,10 @@
         <v>60000000</v>
       </c>
       <c r="E93" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -4205,10 +3590,10 @@
         <v>90000000</v>
       </c>
       <c r="E94" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -4223,10 +3608,10 @@
         <v>120000000</v>
       </c>
       <c r="E95" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -4241,10 +3626,10 @@
         <v>150000000</v>
       </c>
       <c r="E96" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -4259,10 +3644,10 @@
         <v>180000000</v>
       </c>
       <c r="E97" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -4277,10 +3662,10 @@
         <v>210000000</v>
       </c>
       <c r="E98" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -4295,10 +3680,10 @@
         <v>240000000</v>
       </c>
       <c r="E99" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -4313,10 +3698,10 @@
         <v>270000000</v>
       </c>
       <c r="E100" s="5">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -4331,26 +3716,25 @@
         <v>300000000</v>
       </c>
       <c r="E101" s="5">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.875" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
@@ -4358,7 +3742,7 @@
     <col min="5" max="5" width="37.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>74</v>
       </c>
@@ -4375,7 +3759,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4390,7 +3774,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4407,7 +3791,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4422,7 +3806,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -4437,7 +3821,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4454,26 +3838,25 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="20.875" style="2" customWidth="1"/>
@@ -4481,7 +3864,7 @@
     <col min="5" max="5" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.75" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
@@ -4498,7 +3881,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4509,7 +3892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4523,7 +3906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4537,7 +3920,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -4551,7 +3934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4565,7 +3948,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4576,7 +3959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4590,7 +3973,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4604,7 +3987,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -4618,7 +4001,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -4632,7 +4015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -4646,7 +4029,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -4660,7 +4043,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -4674,7 +4057,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -4688,7 +4071,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -4702,7 +4085,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -4716,7 +4099,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:3">
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4728,8 +4111,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_debug/fish3d_gun_barrel_config_byam.xlsx
+++ b/config_debug/fish3d_gun_barrel_config_byam.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27060" windowHeight="11280" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27060" windowHeight="11280" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main|主表" sheetId="6" r:id="rId1"/>
@@ -980,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
@@ -1316,7 +1316,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1343,9 +1343,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G15" sqref="G15"/>
+      <selection pane="topRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1763,10 +1763,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>40</v>
